--- a/speedtest.xlsx
+++ b/speedtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\speedtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B530A11-1875-4C12-9E48-F50AB901AE45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE9BE23-6387-43AF-8F80-3A9E05307B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
